--- a/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.3534806685973654</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.831498516659797</v>
+        <v>6.831498516659799</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-3.824997881524284</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.850526451777911</v>
+        <v>-8.818922583900317</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.906878224096968</v>
+        <v>-4.949636240614147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5240134056593099</v>
+        <v>1.34560559692641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.274429042197209</v>
+        <v>-8.766880492750046</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.71410668869474</v>
+        <v>-6.106411939406065</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.451023837882692</v>
+        <v>-2.859007444480464</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.434353083513469</v>
+        <v>-7.591308139683721</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.808050029748173</v>
+        <v>-3.991785333733729</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3601167342557188</v>
+        <v>0.5506003882432168</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.202302031723083</v>
+        <v>1.170726548529746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.053170250004487</v>
+        <v>6.068892109782483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.92737137880608</v>
+        <v>12.86952395567212</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.715901751405787</v>
+        <v>2.057495967032492</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.234208232344114</v>
+        <v>5.238098727726102</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.558722458622442</v>
+        <v>7.311685463158433</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03220193125052973</v>
+        <v>-0.2691710643399847</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.980840189679505</v>
+        <v>4.143785070222765</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.594042972490678</v>
+        <v>8.572221372713065</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.03126082851839517</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.604158367416205</v>
+        <v>0.6041583674162052</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3000345731982305</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5929306571646837</v>
+        <v>-0.5976301782151314</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3512936135214472</v>
+        <v>-0.3559935716432857</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.02109307172493652</v>
+        <v>0.08170300769583246</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5830392655242757</v>
+        <v>-0.5768433409798943</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4256999184005102</v>
+        <v>-0.3875998711328281</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1987771809090308</v>
+        <v>-0.1826690905274562</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5148865564757933</v>
+        <v>-0.5178225780504123</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2776495616936922</v>
+        <v>-0.2846635113307565</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.02319686413947633</v>
+        <v>0.03255578331447519</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1435523699111444</v>
+        <v>0.1671360343852119</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7197408532032362</v>
+        <v>0.7178640019985465</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.479993077605024</v>
+        <v>1.53795693658985</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2080983747410645</v>
+        <v>0.2324885111985269</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5201212687506533</v>
+        <v>0.5429806159514082</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6552734951162071</v>
+        <v>0.7672811956066073</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005076867807300012</v>
+        <v>0.003551431369581967</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3908748935871272</v>
+        <v>0.408875967332326</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8648311624683417</v>
+        <v>0.8667190840241757</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.8708331855731597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.689784436200505</v>
+        <v>8.689784436200503</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.160806020688768</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.425084544170441</v>
+        <v>-5.13078564967427</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.709594902038837</v>
+        <v>-2.432612135288436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.043783695285418</v>
+        <v>4.497815317954049</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.558858150311082</v>
+        <v>-5.439026002960126</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.733824567619021</v>
+        <v>-5.610581847164075</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.068486095751649</v>
+        <v>3.181872154168415</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.425444123907474</v>
+        <v>-4.725870105838498</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.100201246085134</v>
+        <v>-2.787988561764481</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.169553286384723</v>
+        <v>4.379854440580452</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.247279149268895</v>
+        <v>1.549623992021185</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.243111225627358</v>
+        <v>4.534394048640725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.11287135098169</v>
+        <v>13.61880611351489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.026863280620227</v>
+        <v>1.267491566140987</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.728077015442139</v>
+        <v>1.736562450038929</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.4084573691135</v>
+        <v>10.65709505604333</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3091158036549172</v>
+        <v>0.4382195253348715</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.01802408990268</v>
+        <v>2.142041591595547</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.92561890158658</v>
+        <v>10.6226631642831</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1221434269559329</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.218832800735853</v>
+        <v>1.218832800735852</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2328010017264054</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5980876757942886</v>
+        <v>-0.5931486878580446</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3153964090521864</v>
+        <v>-0.2906849328815945</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4518920544536642</v>
+        <v>0.4921017334303395</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4976099175787999</v>
+        <v>-0.4959218366453843</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5227058641911227</v>
+        <v>-0.5078014814179515</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2544244345505873</v>
+        <v>0.2807831463828163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4760963142937136</v>
+        <v>-0.4603230062346319</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3461865898776316</v>
+        <v>-0.2967909396011206</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5355062622666954</v>
+        <v>0.4636539116560077</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.218586183542866</v>
+        <v>0.3565410899036391</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7342445416603505</v>
+        <v>0.7946413319242507</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.413017669299852</v>
+        <v>2.455171520548938</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1546818780485425</v>
+        <v>0.1844075109967458</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2399166281530873</v>
+        <v>0.2263653560766658</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.403100784426298</v>
+        <v>1.46188182630766</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05118151432268479</v>
+        <v>0.07424994357012286</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2991817218079532</v>
+        <v>0.313551611724711</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.566425443776552</v>
+        <v>1.578106271056287</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.114220735869238</v>
+        <v>-3.709128921953185</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.787300533201428</v>
+        <v>-1.967654489314802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.534607809304529</v>
+        <v>7.099023225928587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1214018961577815</v>
+        <v>0.02335245539155534</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2642145855367026</v>
+        <v>0.07547422808894957</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.622082923375354</v>
+        <v>7.808133564853896</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.5863561038121946</v>
+        <v>-0.3124420984624012</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4929250813133166</v>
+        <v>0.4939040144627866</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>9.017144995369126</v>
+        <v>8.983645818870082</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.580411133542907</v>
+        <v>4.523640089636843</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.494226970841731</v>
+        <v>6.706691294914722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.99023483330866</v>
+        <v>17.63607785466371</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.12743235303049</v>
+        <v>10.00046468247708</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.953821738734058</v>
+        <v>10.43361671815563</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.68589032998679</v>
+        <v>16.48921130365222</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.015761157541786</v>
+        <v>6.053407044970147</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.300836825387316</v>
+        <v>6.963893331245519</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.89234323224169</v>
+        <v>16.10862331402782</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4248425548245152</v>
+        <v>-0.4150885080679269</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2243667057750089</v>
+        <v>-0.2251284642322042</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6511039125857007</v>
+        <v>0.685558601575706</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.006786181512310081</v>
+        <v>-0.02125717795887842</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02898502383877478</v>
+        <v>0.008912819020725497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.635204428944207</v>
+        <v>0.690271879269543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05468633336100091</v>
+        <v>-0.03629044508421859</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04523430952879554</v>
+        <v>0.03800372832850181</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9174711991957512</v>
+        <v>0.8888925856797275</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9306460240912354</v>
+        <v>0.8990265556069118</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.365417171177981</v>
+        <v>1.339586480552126</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.432318576464335</v>
+        <v>3.409265372695389</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.510395883626044</v>
+        <v>1.522293880735047</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.471510370403592</v>
+        <v>1.561472403483086</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.497700720172393</v>
+        <v>2.619806811165363</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9834380243655736</v>
+        <v>0.9282100264901881</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.121833820741851</v>
+        <v>1.073677693343274</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.535690214412047</v>
+        <v>2.602052690139549</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.007981786292365085</v>
+        <v>-0.1013768463106503</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.146720893052154</v>
+        <v>1.175502679659256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.38842992259752</v>
+        <v>11.8605275753511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.879193455218314</v>
+        <v>-4.927870309319204</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.350346660280221</v>
+        <v>-1.167581422996295</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.552434554688462</v>
+        <v>6.803733156013022</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.585615188354804</v>
+        <v>-1.703195497344354</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.402340536303341</v>
+        <v>1.274885044718226</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.58145135267657</v>
+        <v>10.50847037494322</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.187376231588161</v>
+        <v>7.854208183827346</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.770929366398841</v>
+        <v>9.591345581088857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.55989601882741</v>
+        <v>23.39972839953142</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.30314748790184</v>
+        <v>3.144729376653891</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.99517132788173</v>
+        <v>8.709045859150223</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.46847489633748</v>
+        <v>15.71187383876406</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.323819393776591</v>
+        <v>4.299696184257535</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.943367749948218</v>
+        <v>7.914573223534596</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.90423917748983</v>
+        <v>18.25006567230269</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05365015225152129</v>
+        <v>-0.02437713874060029</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1255433355175588</v>
+        <v>0.118238386283938</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.422178733196057</v>
+        <v>1.413320242461922</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4206851106461255</v>
+        <v>-0.4262668258170674</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.129188187706562</v>
+        <v>-0.1096243299943989</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5098121304230786</v>
+        <v>0.5215023383652232</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1713206422878049</v>
+        <v>-0.1865641034381973</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1519140349646321</v>
+        <v>0.1323810173069982</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.126831485231609</v>
+        <v>1.136530724801616</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.924086430186585</v>
+        <v>1.995788269659965</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.421490180216953</v>
+        <v>2.363190344727596</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.006515552767211</v>
+        <v>5.69732332667115</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4272258766049375</v>
+        <v>0.4385115321186837</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.174272954085286</v>
+        <v>1.19963716024102</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.010358561577864</v>
+        <v>2.148736485465001</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6926114016264745</v>
+        <v>0.6559785962810741</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.257160545597377</v>
+        <v>1.292126942488016</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.894641434837331</v>
+        <v>2.944469643652361</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>5.022085549742653</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>15.27586759244615</v>
+        <v>15.27586759244616</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.6076030849815207</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.843694956646743</v>
+        <v>-9.615437608897672</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5490525089818726</v>
+        <v>-1.140716173297176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.039010509167902</v>
+        <v>9.307656104021701</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.266428068558047</v>
+        <v>-1.266874706838298</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.05524585251510065</v>
+        <v>0.7516702176329213</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>11.14687650492878</v>
+        <v>10.93974317726733</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.103138410919396</v>
+        <v>-3.820057802514348</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.235310001398734</v>
+        <v>1.375037980908956</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>11.16285340599081</v>
+        <v>11.02619610710676</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.497941956983298</v>
+        <v>0.1471018915957122</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.63935110906744</v>
+        <v>11.08121961256894</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22.0627314445574</v>
+        <v>22.16955958027927</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.518548332964454</v>
+        <v>7.824760921153152</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.27440230294123</v>
+        <v>10.86736813364977</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>19.76913320400606</v>
+        <v>19.56736851954236</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.727490416727612</v>
+        <v>2.799598214197882</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.363044021839057</v>
+        <v>9.178592405208175</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>19.26476411596763</v>
+        <v>19.26474622990805</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.5406259946511415</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.622558142563677</v>
+        <v>1.622558142563678</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.8358723398210703</v>
@@ -1616,7 +1616,7 @@
         <v>1.290106703989848</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3.924166363770109</v>
+        <v>3.924166363770111</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.09145906817402191</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.757687706576764</v>
+        <v>-0.7655493554645109</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09808609893148007</v>
+        <v>-0.09791838569661013</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.702520022722002</v>
+        <v>0.6693156313546755</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2758210323826625</v>
+        <v>-0.2942266706380507</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1093992747538422</v>
+        <v>0.004626462182097106</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.615186070426006</v>
+        <v>1.667090770832363</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4847580024939243</v>
+        <v>-0.4699203973569297</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1382242696425253</v>
+        <v>0.1375133918182296</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.173848629671543</v>
+        <v>1.152762690120606</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1642872146499843</v>
+        <v>0.1213343000254807</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.021440155062087</v>
+        <v>1.873179321778352</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.637799740420949</v>
+        <v>3.470067316340992</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.42277490242508</v>
+        <v>3.643805693463246</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4.795467452547339</v>
+        <v>4.860110354944911</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>10.73792392402032</v>
+        <v>9.129656228236216</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5999252432932866</v>
+        <v>0.5546816500805957</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.912114058052945</v>
+        <v>1.836538389022343</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.811801521394504</v>
+        <v>4.059693701141262</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.993100558560697</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>9.964599697587394</v>
+        <v>9.964599697587389</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.7290782763152079</v>
@@ -1734,7 +1734,7 @@
         <v>2.576028567398596</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>14.55875112267029</v>
+        <v>14.5587511226703</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.932648310932711</v>
+        <v>-5.088557101989192</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.929625015190346</v>
+        <v>-1.585116853486721</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13.67479557930469</v>
+        <v>13.18628180146488</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.807124666214137</v>
+        <v>-3.335263260653529</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.339792618359203</v>
+        <v>-4.197742468171966</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>4.71691953045372</v>
+        <v>5.203562718709558</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.530737149947686</v>
+        <v>-2.801744462907509</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.351349420959085</v>
+        <v>-1.172725703967879</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>11.16840153017292</v>
+        <v>10.53277644829061</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.62523023570177</v>
+        <v>4.775768378092169</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.293147319304085</v>
+        <v>8.292143136387383</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24.9464928839917</v>
+        <v>25.16314395588714</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.020469272828551</v>
+        <v>7.681642228756864</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.836831068641035</v>
+        <v>7.170106904953373</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.05921582352038</v>
+        <v>15.10665891854374</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.618415789292984</v>
+        <v>4.447477513522768</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.46896897169621</v>
+        <v>6.76794919862621</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>18.83781231163707</v>
+        <v>18.2860440546733</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1768887522883343</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8843636112529186</v>
+        <v>0.8843636112529181</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.0750786048290097</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4901304709401182</v>
+        <v>-0.5025073567073712</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1903681652963137</v>
+        <v>-0.1803514114409074</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.250556999884403</v>
+        <v>1.214907116754917</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2797806204077087</v>
+        <v>-0.248750065724256</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.250068446323459</v>
+        <v>-0.2939389728470887</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3106077015137093</v>
+        <v>0.3524874295672873</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2279079381854186</v>
+        <v>-0.245482381669394</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1339961326247719</v>
+        <v>-0.1187844440552946</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.9031277542956718</v>
+        <v>0.8476889058498944</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.858824791336861</v>
+        <v>0.8623309860807956</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.401882103981409</v>
+        <v>1.516236466464777</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.35354399478632</v>
+        <v>4.618783256942528</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7885895639208532</v>
+        <v>0.9320865224495832</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9249395985764114</v>
+        <v>0.8153042049856074</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.780546244398297</v>
+        <v>1.817057601431758</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6034226877540438</v>
+        <v>0.5285622861038806</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8094662803235017</v>
+        <v>0.8158125049256357</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.395241668168173</v>
+        <v>2.276782110883684</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>11.67719858262895</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>5.325813530491437</v>
+        <v>5.325813530491434</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.546977264034338</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.256190408727266</v>
+        <v>-0.9636246487927282</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>7.302741779583534</v>
+        <v>7.193469053723829</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7.12336659344279</v>
+        <v>7.544653031296676</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.5590191216386777</v>
+        <v>-0.4626181030351004</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>8.078199757730077</v>
+        <v>7.835695302753576</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.539949399734838</v>
+        <v>2.293224857357082</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.1777229350089279</v>
+        <v>0.1966067017667965</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>9.028221425910809</v>
+        <v>8.904199201303378</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.92950059069173</v>
+        <v>5.610348101295806</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.282547164729004</v>
+        <v>5.341988708962609</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>15.19556665783675</v>
+        <v>15.24560488411699</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14.65400936258947</v>
+        <v>14.75270544079737</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.186840737496072</v>
+        <v>6.101365650240634</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>15.54166902665993</v>
+        <v>15.55479536717464</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>8.398820910179969</v>
+        <v>8.044038239074091</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.806738580274133</v>
+        <v>4.890720856906843</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>14.52064959619764</v>
+        <v>14.48102285770969</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>10.79918999817632</v>
+        <v>10.22811172808937</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>1.405814055073704</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6411729202759654</v>
+        <v>0.6411729202759651</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3303040941269844</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1501030846070787</v>
+        <v>-0.1214702635722631</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.7695076690689626</v>
+        <v>0.7660213942771111</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.7667783642325533</v>
+        <v>0.8162835291878526</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.06147385188833315</v>
+        <v>-0.05865512691219054</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.8137136833723224</v>
+        <v>0.8092016969186615</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2653425465869794</v>
+        <v>0.2255388333117478</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02336137830307626</v>
+        <v>0.01693825083600151</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.9778905387896637</v>
+        <v>0.9719741797287156</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6629633202596674</v>
+        <v>0.6023242426263636</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9405052810295844</v>
+        <v>0.9977628919606735</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.720462540193103</v>
+        <v>2.778065729213287</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.616792712701453</v>
+        <v>2.557334126625968</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.893302532070878</v>
+        <v>0.8779918988483687</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.374190428008086</v>
+        <v>2.291522712154109</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.267543861506428</v>
+        <v>1.206762781423218</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7448732950125376</v>
+        <v>0.7281870271680724</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.132606926726105</v>
+        <v>2.172606932292789</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.706620107901967</v>
+        <v>1.556190983798664</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>6.420015076198885</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7.639335374561992</v>
+        <v>7.639335374561995</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>2.310468725449302</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.422510870659262</v>
+        <v>1.473308126413173</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>3.379217330348425</v>
+        <v>3.328858807514667</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4.697947550019397</v>
+        <v>4.769131801063315</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.6793887111624241</v>
+        <v>-0.6015408998492346</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.469310090454929</v>
+        <v>1.630632732012491</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>7.987405050994455</v>
+        <v>7.806733451800302</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.336188244709157</v>
+        <v>1.25425145627106</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>3.426018680883314</v>
+        <v>3.562444187576619</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>7.195239925502031</v>
+        <v>7.405797608910805</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>7.47097056330668</v>
+        <v>7.391043129901999</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>9.409569672750004</v>
+        <v>9.409832655138304</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>10.75916933080016</v>
+        <v>10.81892837198865</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.123904654299529</v>
+        <v>5.134628590635679</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.605469388607383</v>
+        <v>7.725642294464397</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>13.83992113236557</v>
+        <v>13.90771156307599</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>5.366612429990337</v>
+        <v>5.398399044490989</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>7.719108000612601</v>
+        <v>7.75851262143393</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>11.30723881158281</v>
+        <v>11.45497688880015</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1714595700140374</v>
+        <v>0.2141523372560288</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4543557709307934</v>
+        <v>0.4379357740047073</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.5992179400082209</v>
+        <v>0.6296427714804034</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.0804557327150911</v>
+        <v>-0.07268099695745119</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1706994173668313</v>
+        <v>0.1645505022606431</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.9058903922051371</v>
+        <v>0.8706482040763853</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1660245316293666</v>
+        <v>0.1700008706810884</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.447489117319084</v>
+        <v>0.4512577252967665</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.9106024970358551</v>
+        <v>0.9371720259966223</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.513272002262421</v>
+        <v>1.538566656953948</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.899572430112952</v>
+        <v>1.904349462265687</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.186318466729071</v>
+        <v>2.179045356634288</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.834592411926207</v>
+        <v>0.850188295404806</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.243356381368573</v>
+        <v>1.291972634912459</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.427151674364658</v>
+        <v>2.453321818133276</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9140645350943708</v>
+        <v>0.9283997969291837</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.331295104992145</v>
+        <v>1.343552402968783</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.93289510155177</v>
+        <v>2.007957826976266</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>4.439951483770997</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>8.832065074732844</v>
+        <v>8.832065074732846</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.115368339107167</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.4003401353318584</v>
+        <v>-0.4079665639332028</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>3.789567194492561</v>
+        <v>3.582930778939242</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>9.40274138465074</v>
+        <v>9.56226842979115</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.2017246266650643</v>
+        <v>-0.285410737352122</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>3.011568947414891</v>
+        <v>2.808038056161642</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>7.473691759879644</v>
+        <v>7.53332632681179</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.1810142752272066</v>
+        <v>0.08165626941111016</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>3.785790906914647</v>
+        <v>3.816387334853413</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>8.927470927744743</v>
+        <v>8.825998930257956</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.366852441037628</v>
+        <v>2.295344873841336</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>6.742225833606397</v>
+        <v>6.803994552905565</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>12.62680059802546</v>
+        <v>12.68043106116873</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.648127876332377</v>
+        <v>2.666421660540656</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>6.034245754996487</v>
+        <v>5.849197368477018</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>10.3347454762485</v>
+        <v>10.16833464503993</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.121541445780237</v>
+        <v>2.055259919074728</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>5.94991556272755</v>
+        <v>5.885517783877736</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>10.98414989464067</v>
+        <v>11.06771227075894</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.0477854753956248</v>
+        <v>-0.05150054514628005</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.4762235899238528</v>
+        <v>0.4336911143612759</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>1.173540846580719</v>
+        <v>1.18314172233922</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.02118587609103317</v>
+        <v>-0.03115042803087355</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.3167430430911769</v>
+        <v>0.3010416557366862</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.7727345123215453</v>
+        <v>0.7841984353867038</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02229655291852398</v>
+        <v>0.01005257710961705</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.4490323823856218</v>
+        <v>0.4427340503059742</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.049436650889525</v>
+        <v>1.034985848453721</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3604832033251414</v>
+        <v>0.3518964059404102</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.016428505558374</v>
+        <v>1.001082833925071</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.953418770762269</v>
+        <v>1.911690546978175</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3337829395263246</v>
+        <v>0.3245016440425714</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.7392110240092646</v>
+        <v>0.7350105911048882</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.282792795816317</v>
+        <v>1.27140930291537</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2904236107158232</v>
+        <v>0.2720504561368557</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.7951439014442325</v>
+        <v>0.785851522047287</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.459417455879668</v>
+        <v>1.461837575897791</v>
       </c>
     </row>
     <row r="58">
